--- a/loaded_influencer_data/abby.mannich/abby.mannich_video.xlsx
+++ b/loaded_influencer_data/abby.mannich/abby.mannich_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7452892027190070570</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8.748114630467571</v>
+        <v>8.819133034379671</v>
       </c>
       <c r="I2" t="n">
-        <v>6.93815987933635</v>
+        <v>7.025411061285501</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.809954751131222</v>
+        <v>1.79372197309417</v>
       </c>
       <c r="L2" t="n">
-        <v>0.301659125188537</v>
+        <v>0.2989536621823617</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,13 +558,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7462429082282937646</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="C3" t="n">
         <v>39</v>
@@ -580,23 +580,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>disassociate with me while I do my makeup… 😅 #unrecognizablemakeup #fullglam #makeuptutorial</t>
+          <t>✨✨ #makeuptransformation #makeuptransition</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7.262569832402235</v>
+        <v>7.152682255845942</v>
       </c>
       <c r="I3" t="n">
-        <v>5.446927374301676</v>
+        <v>5.364511691884457</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.815642458100559</v>
+        <v>1.788170563961486</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5586592178770949</v>
+        <v>0.5502063273727648</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,426 +610,422 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/video/7488871976841317675</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2844</v>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>full tutorial using the makeup products I love, adore and would hands down recommend to anyone 💋 @sephora</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4.289732770745429</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.90295358649789</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3867791842475387</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7735583684950774</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7486985831371115819</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>380</v>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B5" t="n">
+        <v>926</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Sephora Sale Recommendations | Part 4: Eye Products ✨
 products mentioned:
 @SHISEIDO eyelash curler</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>8.947368421052632</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.421052631578947</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>6.803455723542116</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.50755939524838</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.295896328293737</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5399568034557235</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7486644354111507754</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>572</v>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B6" t="n">
+        <v>857</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
         <v>6</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Sephora Sale Recommendations | Part 3: Bronzer/Contour, Blush, Highlight ✨
 products mentioned:</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>8.041958041958042</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.993006993006993</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.048951048951049</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8741258741258742</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>6.534422403733956</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.834305717619603</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7001166861143524</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5834305717619603</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7486245929784315179</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>450</v>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B7" t="n">
+        <v>556</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
         <v>9</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Sephora Sale Recommendations | Part 2: Foundation &amp; Concealer ✨
 products mentioned:
 @NARS Cosmetics</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>11.55555555555556</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.555555555555555</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.111111111111111</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>10.61151079136691</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.992805755395683</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.618705035971223</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8992805755395683</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7485934177817218346</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>407</v>
-      </c>
-      <c r="C7" t="n">
-        <v>45</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B8" t="n">
+        <v>444</v>
+      </c>
+      <c r="C8" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" t="n">
         <v>11</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Sephora Sale Recommendations | Part 1: Skin Prep ✨
 products mentioned:
 @Charlotte Tilbury magic cream moisturizer (wearing in video)</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>13.75921375921376</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.05651105651106</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9828009828009828</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H8" t="n">
+        <v>13.51351351351351</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.03603603603604</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.477477477477477</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9009009009009009</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7485161492858539310</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>674</v>
-      </c>
-      <c r="C8" t="n">
-        <v>64</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="B9" t="n">
+        <v>700</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
         <v>27</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>how my other 1990s babies doin? y’all good? 😅</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>13.50148367952522</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9.495548961424333</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.005934718100891</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.4451038575667656</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H9" t="n">
+        <v>13.42857142857143</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.571428571428571</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.857142857142857</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7484320744608992554</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>260</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="B10" t="n">
+        <v>276</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>@Maybelline NY I love you 💋 #lipcombo #maybelline #lipliner #makeup</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>9.230769230769232</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.384615384615385</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.846153846153846</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="H10" t="n">
+        <v>9.782608695652174</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.797101449275362</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.985507246376811</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3623188405797101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7483255424867650862</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>547</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>34</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>you don’t “need” anything BUT if you’re shopping the upcoming Sephora Sale here are my recommendations 🩷</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>9.140767824497258</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>6.215722120658135</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.925045703839122</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.5484460694698354</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7483211555232976174</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>273</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>13</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>@pradabeauty ’s new Pradascope Lash Extending Mascara gives all the length and lift, with zero clumping or flaking 🙌🏼 have you tried it yet??</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6.95970695970696</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.197802197802198</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.7326007326007326</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@abby.mannich/video/7478454227476614446</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>611</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1039,47 +1035,47 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>updated everyday makeup routine 💋 #makeup #makeuptutorial #makeuproutine #grwmmakeup</t>
+          <t>@pradabeauty ’s new Pradascope Lash Extending Mascara gives all the length and lift, with zero clumping or flaking 🙌🏼 have you tried it yet??</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8.51063829787234</v>
+        <v>6.95970695970696</v>
       </c>
       <c r="I12" t="n">
-        <v>6.546644844517186</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.963993453355156</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3273322422258593</v>
+        <v>0.7326007326007326</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@abby.mannich/video/7478021125260250411</t>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/video/7478454227476614446</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1089,603 +1085,603 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>updated everyday makeup routine 💋 #makeup #makeuptutorial #makeuproutine #grwmmakeup</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8.51063829787234</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.546644844517186</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.963993453355156</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3273322422258593</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/video/7478021125260250411</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>561</v>
+      </c>
+      <c r="C14" t="n">
+        <v>34</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>quick, easy sultry eye look for hooded eyes 🖤
 inspired by my angel @𝐒𝐇𝐄𝐋𝐁𝐘 𝐀𝐍𝐍 ’s baddie eye makeup tutorial</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>6.951871657754011</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>6.060606060606061</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.8912655971479502</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.35650623885918</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7477639232031427886</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>502</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>33</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>weekend drafts 🖤 also making these pants my new personality
 #nyc #ootn #styleinspo</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>6.772908366533864</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>6.573705179282868</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.199203187250996</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.199203187250996</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7475821702358879534</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>659</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>33</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>11</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>weekend drafts 🖤 also making these pants my new personality
 #nyc #ootn #styleinspo</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>6.676783004552352</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>5.007587253414264</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.669195751138088</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>0.3034901365705615</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7474415038439197998</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>508</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>41</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>the vibe when no one’s son is stressing you out ❤️‍🔥 #ootn #nyc</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>8.858267716535433</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>8.070866141732283</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.7874015748031495</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.3937007874015748</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7473939643218660651</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>474</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>20</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>us? casual? never @Madelynn Mann</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>4.852320675105485</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>4.219409282700422</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.6329113924050633</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>0.2109704641350211</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7471736555204447534</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>654</v>
-      </c>
-      <c r="C18" t="n">
-        <v>38</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>#makeup #transition #grwmmakeup</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6.574923547400611</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.81039755351682</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.7645259938837921</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.3058103975535168</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@abby.mannich/video/7471325362924899630</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>514</v>
       </c>
       <c r="C19" t="n">
         <v>38</v>
       </c>
       <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>#makeup #transition #grwmmakeup</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6.574923547400611</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.81039755351682</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.7645259938837921</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3058103975535168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/video/7471325362924899630</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>514</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" t="n">
         <v>11</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>this is what 90% of my camera roll looks like 🙃 #makeup #outtakes #bloopers</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>9.533073929961089</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>7.392996108949417</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.140077821011673</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>0.1945525291828794</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7465516008728464686</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>623</v>
-      </c>
-      <c r="C20" t="n">
-        <v>27</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>100/10 recommend eating at Spinasse if you’re visiting Seattle. Hands down one of the best meals I’ve ever had. 🍷🍝🍰🍸</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4.654895666131622</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.333868378812198</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.3210272873194221</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2025-01-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@abby.mannich/video/7465496645044817198</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>382</v>
       </c>
       <c r="C21" t="n">
         <v>27</v>
       </c>
       <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>100/10 recommend eating at Spinasse if you’re visiting Seattle. Hands down one of the best meals I’ve ever had. 🍷🍝🍰🍸</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4.654895666131622</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.333868378812198</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3210272873194221</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/video/7465496645044817198</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>382</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27</v>
+      </c>
+      <c r="D22" t="n">
         <v>9</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>makeup &amp; yap 🍸✨
 #grwm #makeup #makeuptutorial #makeuproutine #transformation</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>9.424083769633508</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>7.068062827225131</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.356020942408377</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.2617801047120419</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/photo/7465427089005595946</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>477</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>23</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>product breakdown:
 @Iconic London underglow blurring primer &amp; velvet pore refining primer
 @NARS Cosmetics radiant longwear foundation, shade Patagonia</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>5.450733752620545</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>4.821802935010482</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.628930817610063</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>0.209643605870021</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7463913243296206122</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>670</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>46</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>12</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>✨✨ #makeuptransition #makeuptransformation #makeup #unrecognizablemakeup</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>8.656716417910449</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>6.865671641791045</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.791044776119403</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.7462686567164178</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/photo/7462903340054236459</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>684</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>53</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>9</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>✨✨ #makeuptransition #makeuptransformation #makeup #unrecognizablemakeup</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9.064327485380117</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.748538011695906</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.31578947368421</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1461988304093567</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@abby.mannich/video/7462846006632353070</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>689</v>
-      </c>
-      <c r="C25" t="n">
-        <v>58</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1695,98 +1691,98 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>✨✨ #makeuptransition #makeuptransformation #makeup #unrecognizablemakeup</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9.064327485380117</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.748538011695906</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.31578947368421</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1461988304093567</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/video/7462846006632353070</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>689</v>
+      </c>
+      <c r="C26" t="n">
+        <v>58</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>a once in a lifetime southern snow day ❄️☃️🐾
 #snowday #fairhope #alabama #winterstorm</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>10.01451378809869</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>8.417997097242381</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.596516690856313</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>0.1451378809869376</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/photo/7462487881672641838</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>350</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>34</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>one thing about me? imma take a mirror pic ✨ #outfitinspo #ootd #ootnight #winterstyle #whattowear #styleinspo</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>12</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.714285714285714</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.285714285714286</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@abby.mannich/photo/7455383184461548843</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>815</v>
-      </c>
-      <c r="C27" t="n">
-        <v>67</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1796,504 +1792,504 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>one thing about me? imma take a mirror pic ✨ #outfitinspo #ootd #ootnight #winterstyle #whattowear #styleinspo</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>12</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.714285714285714</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/photo/7455383184461548843</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>815</v>
+      </c>
+      <c r="C28" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>I truly lucked out in the friend department 🥂
 #nye #happynewyear #bestfriends #newyorkcity</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>9.079754601226995</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>8.220858895705522</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.8588957055214724</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>0.1226993865030675</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7452525632820366634</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>639</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>54</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>this christmas makeup sleigheddd 😉 might do it again for new years 😅
 products used:
 @Iconic London underglow blurring primer</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>9.859154929577464</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>8.450704225352112</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>1.408450704225352</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>0.4694835680751174</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7452117718423096618</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>565</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>38</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>2</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Christmas Eve glam ✨ #makeuptransition #holidaymakeup #christmasmakeup #wintermakeup</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>7.079646017699115</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>6.725663716814159</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.3539823008849557</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>0.1769911504424779</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-12-25</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7451797373048655147</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>425</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>24</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>5</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>grwm 🍸 #makeuptutorial #makeuproutine
 product breakdown:
 @Iconic London underglow blurring primer</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>6.823529411764707</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>5.647058823529412</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1.176470588235294</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7450931667050532139</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>531</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>34</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>…but im an aries so…</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>6.96798493408663</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>6.4030131826742</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.5649717514124294</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>0.1883239171374765</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-12-22</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7449028950472346922</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>667</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>51</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>9</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>4</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>#makeuptutorial #makeuptransformation
 Products:
 @Iconic London underglow blurring primer</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>8.995502248875562</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>7.646176911544228</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1.349325337331334</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>0.5997001499250375</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7448835660460592430</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>622</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>51</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>9</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>#makeuptutorial #makeuptransformation
 Products:
 @Iconic London underglow blurring primer</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>9.646302250803858</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>8.19935691318328</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.446945337620579</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>0.6430868167202572</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7447690439806831918</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>517</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>32</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>2</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>I just be vibin by myself fr</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>6.576402321083171</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>6.189555125725339</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.3868471953578337</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>0.1934235976789168</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7447628464967912747</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>359</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>40</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>10</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>thank me later 💋 @Valentino.Beauty @sephora
 #giftedbyvalentinobeauty #donnaborninroma #fragrance</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>13.92757660167131</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>11.14206128133705</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.785515320334262</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>1.114206128133705</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7447343893495958826</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>394</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>28</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>as a yapper, editing this down to less than 3.5 min was a win 🤣 do we like the longer-form, talk through tutorials or no… 🤔</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7.614213197969544</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.106598984771574</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.5076142131979695</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.7614213197969544</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2024-12-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@abby.mannich/video/7447180050878876974</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>437</v>
-      </c>
-      <c r="C37" t="n">
-        <v>41</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -2306,44 +2302,44 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>the lips were the star of the show ❄️ #icymakeup #makeuptutorial #wintermakeup #holidaymakeup</t>
+          <t>as a yapper, editing this down to less than 3.5 min was a win 🤣 do we like the longer-form, talk through tutorials or no… 🤔</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9.839816933638444</v>
+        <v>7.614213197969544</v>
       </c>
       <c r="I37" t="n">
-        <v>9.382151029748284</v>
+        <v>7.106598984771574</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4576659038901602</v>
+        <v>0.5076142131979695</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6864988558352403</v>
+        <v>0.7614213197969544</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-13</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@abby.mannich/video/7444634815388716334</t>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/video/7447180050878876974</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>666</v>
+        <v>437</v>
       </c>
       <c r="C38" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
@@ -2355,563 +2351,613 @@
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
+        <is>
+          <t>the lips were the star of the show ❄️ #icymakeup #makeuptutorial #wintermakeup #holidaymakeup</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9.839816933638444</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9.382151029748284</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4576659038901602</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6864988558352403</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@abby.mannich/video/7444634815388716334</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>666</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>highlighter on the lips is the move 🫧💋 #lipcombo #icymakeup
 Products:
 @Maybelline NY shaping lip liners - shade gone griege to line &amp; magnetic mauve to fill</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>4.954954954954955</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>4.654654654654655</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.3003003003003003</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>0.4504504504504505</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/photo/7443990082656455982</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>581</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>49</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>cinnamon girl makeup 🐻🍂🤎
 #makeuptutorial #cinnamongirl #holidaymakeup #wintermakeup</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>9.122203098106713</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>8.433734939759036</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.6884681583476765</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>0.5163511187607573</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-5</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7440991787969187103</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>971</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>53</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>one thing about me, im gonna get a mirror pic 📸 #outfitinspo #ootd #fitcheck</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>5.76725025746653</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>5.458290422245108</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.3089598352214212</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>0.1029866117404737</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7440161454843579679</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>433</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>94</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>5</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>a few gorgeous pieces passed down from my mom 🤎 #furcoat #wintercoat #consignment</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>22.17090069284065</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>21.70900692840647</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.4618937644341801</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>1.15473441108545</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-11-25</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7439431174717590814</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>596</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>29</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>1</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>real lady-like #iykyk</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>5.536912751677852</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>4.865771812080537</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.6711409395973155</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>0.1677852348993289</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-11-23</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7439385482406022430</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>587</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>53</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>4</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Replying to @tayybear16 better late than never 😅 #haircareroutine #haircaretips #silkyhair
 Products mentioned:</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>10.39182282793867</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>9.028960817717206</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.362862010221465</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>0.6814310051107325</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7438302952810417438</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>1176</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>33</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>1</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>forever a gym lip girlie 💋 @Kelli Anne Sewell #gymlips #lipcombo #fallaesthetic #makeup
 products used:</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>2.891156462585034</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>2.806122448979592</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.08503401360544217</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>0.08503401360544217</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7437942063649262879</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>396</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>39</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>4</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>have you tried the new stick foundation from @Diorbeauty #makeupreview #diorbeauty #stickfoundation</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>10.85858585858586</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>9.848484848484848</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>1.01010101010101</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>0.2525252525252525</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-11-18</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7437567360900402462</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>489</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>27</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>2</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>@Maybelline NY 🤝🏼 @Patrick Ta Beauty 💋 #lipcombo #falllipcombo #makeup</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>5.930470347648262</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I47" t="n">
         <v>5.521472392638037</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.408997955010225</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>0.6134969325153374</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-11-17</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7437495334059773214</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>644</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>14</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>this lip combo has me in a chokehold
 @Maybelline NY lip liner (gone griege)
 @Patrick Ta Beauty lip plumping gloss (2CC’s)</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H48" t="n">
         <v>2.173913043478261</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I48" t="n">
         <v>2.173913043478261</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-11-16</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7437339850077949214</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>429</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>18</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>4</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>1</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>@maccosmetics skinfinish powder really is THAT girl ✨ #finishingpowder #maccosmectics #makeup</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>5.128205128205128</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>4.195804195804196</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.9324009324009324</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>0.2331002331002331</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-11-15</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7428039946969140511</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B50" t="n">
         <v>597</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>25</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D50" t="n">
         <v>3</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>2</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>she’s back 💋 #makeuproutine
 •
@@ -2920,75 +2966,75 @@
 @Armani beauty luminous silk foundation shade 5.9</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>4.690117252931323</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>4.187604690117253</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.5025125628140703</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>0.3350083752093803</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-15</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@abby.mannich/video/7417085041643228447</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>781</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>60</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>this trend has me cryingg 🤣</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>7.93854033290653</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>7.682458386683738</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.2560819462227913</v>
       </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-10-21</t>
         </is>
